--- a/outputs/c__Negativicutes.xlsx
+++ b/outputs/c__Negativicutes.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9F625E-52C1-2249-B7F1-BA5D63759C66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c__Negativicutes_pred-t" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c__Negativicutes_pred-t-p" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="c__Negativicutes_pred-t" sheetId="1" r:id="rId1"/>
+    <sheet name="c__Negativicutes_pred-t-p" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="29">
   <si>
     <t>o__Acidaminococcales</t>
   </si>
@@ -88,28 +93,45 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>rejection-f</t>
+  </si>
+  <si>
+    <t>gtdb-Tk</t>
+  </si>
+  <si>
+    <t>reject</t>
+  </si>
+  <si>
+    <t>o__Oscillospirales</t>
+  </si>
+  <si>
+    <t>o__Bacteroidales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -124,26 +146,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,20 +470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,323 +491,323 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>-1.808106638336671</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7624931838215556</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2">
+        <v>-1.8081066383366711</v>
+      </c>
+      <c r="C2">
+        <v>0.76249318382155562</v>
+      </c>
+      <c r="D2">
         <v>-1.0290025962169</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-0.1233381671007934</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>-1.410321770807919</v>
       </c>
-      <c r="D3" t="n">
-        <v>-0.1305738451267112</v>
+      <c r="D3">
+        <v>-0.13057384512671119</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="n">
-        <v>-1.93424715922559</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8518081624976259</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4">
+        <v>-1.9342471592255901</v>
+      </c>
+      <c r="C4">
+        <v>0.85180816249762592</v>
+      </c>
+      <c r="D4">
         <v>-1.264445539592022</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>-0.7603007721535519</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5">
+        <v>-0.76030077215355185</v>
+      </c>
+      <c r="C5">
         <v>-0.6947299376712216</v>
       </c>
-      <c r="D5" t="n">
-        <v>-0.7535914951767962</v>
+      <c r="D5">
+        <v>-0.75359149517679624</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.2171574459178849</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-1.757731216090124</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.06776652046601739</v>
+      <c r="B6">
+        <v>0.21715744591788491</v>
+      </c>
+      <c r="C6">
+        <v>-1.7577312160901239</v>
+      </c>
+      <c r="D6">
+        <v>6.7766520466017388E-2</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.4186148905356463</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>0.41861489053564632</v>
+      </c>
+      <c r="C7">
         <v>-1.480803301953844</v>
       </c>
-      <c r="D7" t="n">
-        <v>-1.253314359930299</v>
+      <c r="D7">
+        <v>-1.2533143599302989</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="n">
-        <v>-0.4490620475307988</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-1.108269177790362</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1893365101935243</v>
+      <c r="B8">
+        <v>-0.44906204753079881</v>
+      </c>
+      <c r="C8">
+        <v>-1.1082691777903619</v>
+      </c>
+      <c r="D8">
+        <v>0.18933651019352429</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="n">
-        <v>-1.519377908061455</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9">
+        <v>-1.5193779080614549</v>
+      </c>
+      <c r="C9">
         <v>0.947061712752163</v>
       </c>
-      <c r="D9" t="n">
-        <v>-2.084923324356798</v>
+      <c r="D9">
+        <v>-2.0849233243567982</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-1.683220615888751</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.295053429906065</v>
       </c>
-      <c r="D10" t="n">
-        <v>-2.528801130907152</v>
+      <c r="D10">
+        <v>-2.5288011309071519</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="n">
-        <v>-0.4791991532555557</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.4251563727399856</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.7299181103845092</v>
+      <c r="B11">
+        <v>-0.47919915325555568</v>
+      </c>
+      <c r="C11">
+        <v>-0.42515637273998558</v>
+      </c>
+      <c r="D11">
+        <v>-0.72991811038450916</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="n">
-        <v>0.620212764449755</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-1.296542623565028</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-1.569172499214036</v>
+      <c r="B12">
+        <v>0.62021276444975504</v>
+      </c>
+      <c r="C12">
+        <v>-1.2965426235650279</v>
+      </c>
+      <c r="D12">
+        <v>-1.5691724992140359</v>
       </c>
       <c r="E12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.8091010004152795</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-1.406715265852278</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-1.69951727803809</v>
+      <c r="B13">
+        <v>0.80910100041527955</v>
+      </c>
+      <c r="C13">
+        <v>-1.4067152658522779</v>
+      </c>
+      <c r="D13">
+        <v>-1.6995172780380901</v>
       </c>
       <c r="E13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="n">
-        <v>-0.8433986968144881</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-1.190788599679593</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.4556927396363828</v>
+      <c r="B14">
+        <v>-0.84339869681448809</v>
+      </c>
+      <c r="C14">
+        <v>-1.1907885996795931</v>
+      </c>
+      <c r="D14">
+        <v>0.45569273963638279</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="n">
-        <v>-2.031129078534529</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.036770763936051</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="B15">
+        <v>-2.0311290785345291</v>
+      </c>
+      <c r="C15">
+        <v>2.0367707639360511</v>
+      </c>
+      <c r="D15">
         <v>-3.053072169358336</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="n">
-        <v>-1.953108027776253</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.556823652160297</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-2.180514270089288</v>
+      <c r="B16">
+        <v>-1.9531080277762529</v>
+      </c>
+      <c r="C16">
+        <v>1.5568236521602969</v>
+      </c>
+      <c r="D16">
+        <v>-2.1805142700892879</v>
       </c>
       <c r="E16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="n">
-        <v>-0.7218766060122525</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17">
+        <v>-0.72187660601225245</v>
+      </c>
+      <c r="C17">
         <v>-1.633308894790972</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.9131500003866638</v>
+      <c r="D17">
+        <v>0.91315000038666383</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="n">
-        <v>0.5474871173510454</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18">
+        <v>0.54748711735104538</v>
+      </c>
+      <c r="C18">
         <v>-1.162679953760557</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-1.588821391264015</v>
       </c>
       <c r="E18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="n">
-        <v>0.09429061433117242</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-1.526344499618239</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-0.2798677706369441</v>
+      <c r="B19">
+        <v>9.4290614331172418E-2</v>
+      </c>
+      <c r="C19">
+        <v>-1.5263444996182389</v>
+      </c>
+      <c r="D19">
+        <v>-0.27986777063694412</v>
       </c>
       <c r="E19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="n">
-        <v>-2.311109441709893</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.3741786126323</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="B20">
+        <v>-2.3111094417098932</v>
+      </c>
+      <c r="C20">
+        <v>1.3741786126322999</v>
+      </c>
+      <c r="D20">
         <v>-1.327445445511459</v>
       </c>
       <c r="E20" t="s">
@@ -782,25 +815,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,388 +843,508 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.06152641146233882</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8043756283001471</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2">
+        <v>6.1526411462338823E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.80437562830014708</v>
+      </c>
+      <c r="D2">
         <v>0.134097960237514</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.8043756283001471</v>
+      <c r="E2">
+        <v>0.80437562830014708</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.4407436087292192</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>0.44074360872921919</v>
+      </c>
+      <c r="C3">
         <v>0.1216903515895723</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.4375660396812083</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.4407436087292192</v>
+      <c r="D3">
+        <v>0.43756603968120827</v>
+      </c>
+      <c r="E3">
+        <v>0.44074360872921919</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.05216273861281135</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8459191114090092</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4">
+        <v>5.216273861281135E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.84591911140900922</v>
+      </c>
+      <c r="D4">
         <v>0.1019181499781793</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.8459191114090092</v>
+      <c r="E4">
+        <v>0.84591911140900922</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.3252561176228372</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3472981943692326</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3274456880079301</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3472981943692326</v>
+      <c r="B5">
+        <v>0.32525611762283718</v>
+      </c>
+      <c r="C5">
+        <v>0.34729819436923259</v>
+      </c>
+      <c r="D5">
+        <v>0.32744568800793011</v>
+      </c>
+      <c r="E5">
+        <v>0.34729819436923259</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.4999977165260791</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06938806436133763</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4306142191125832</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.4999977165260791</v>
+      <c r="B6">
+        <v>0.49999771652607911</v>
+      </c>
+      <c r="C6">
+        <v>6.9388064361337626E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.43061421911258319</v>
+      </c>
+      <c r="E6">
+        <v>0.49999771652607911</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>0.7476412453137492</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.1118887475156177</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.1404700071706332</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.14047000717063321</v>
+      </c>
+      <c r="E7">
         <v>0.7476412453137492</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.2931943007677901</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1516580630495279</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.555147636182682</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.555147636182682</v>
+      <c r="B8">
+        <v>0.29319430076779007</v>
+      </c>
+      <c r="C8">
+        <v>0.15165806304952789</v>
+      </c>
+      <c r="D8">
+        <v>0.55514763618268204</v>
+      </c>
+      <c r="E8">
+        <v>0.55514763618268204</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.07491489925940559</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8825296743570196</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.04255542638357485</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.8825296743570196</v>
+      <c r="B9">
+        <v>7.4914899259405587E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.88252967435701957</v>
+      </c>
+      <c r="D9">
+        <v>4.2555426383574853E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.88252967435701957</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.0474311890582079</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9322062188953879</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.02036259204640416</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.9322062188953879</v>
+      <c r="B10">
+        <v>4.7431189058207902E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.93220621889538791</v>
+      </c>
+      <c r="D10">
+        <v>2.0362592046404161E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.93220621889538791</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.3528866886204753</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11">
+        <v>0.35288668862047529</v>
+      </c>
+      <c r="C11">
         <v>0.372482400792704</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.2746309105868206</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.372482400792704</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.7942376555800591</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.1168191885906255</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.08894315582931545</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>8.8943155829315446E-2</v>
+      </c>
+      <c r="E12">
         <v>0.7942376555800591</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.8400219668018268</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09161653570475427</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.06836149749341881</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8400219668018268</v>
+      <c r="B13">
+        <v>0.84002196680182684</v>
+      </c>
+      <c r="C13">
+        <v>9.1616535704754268E-2</v>
+      </c>
+      <c r="D13">
+        <v>6.8361497493418813E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.84002196680182684</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="n">
-        <v>0.1861332864815572</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1315087130297385</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.6823580004887043</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.6823580004887043</v>
+      <c r="B14">
+        <v>0.18613328648155719</v>
+      </c>
+      <c r="C14">
+        <v>0.13150871302973849</v>
+      </c>
+      <c r="D14">
+        <v>0.68235800048870432</v>
+      </c>
+      <c r="E14">
+        <v>0.68235800048870432</v>
       </c>
       <c r="F14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="n">
-        <v>0.01672408386249739</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9772570027828381</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.006018913354664514</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9772570027828381</v>
+      <c r="B15">
+        <v>1.672408386249739E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.97725700278283811</v>
+      </c>
+      <c r="D15">
+        <v>6.0189133546645138E-3</v>
+      </c>
+      <c r="E15">
+        <v>0.97725700278283811</v>
       </c>
       <c r="F15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="n">
-        <v>0.02837476729176936</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9490219752257671</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.02260325748246348</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9490219752257671</v>
+      <c r="B16">
+        <v>2.8374767291769361E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.94902197522576714</v>
+      </c>
+      <c r="D16">
+        <v>2.260325748246348E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.94902197522576714</v>
       </c>
       <c r="F16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.1531031892685773</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.06153953691641183</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.7853572738150109</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.7853572738150109</v>
+      <c r="C17">
+        <v>6.1539536916411827E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.78535727381501086</v>
+      </c>
+      <c r="E17">
+        <v>0.78535727381501086</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="n">
-        <v>0.7698670672112866</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18">
+        <v>0.76986706721128662</v>
+      </c>
+      <c r="C18">
         <v>0.1392193558453447</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.09091357694336867</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.7698670672112866</v>
+      <c r="D18">
+        <v>9.0913576943368671E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.76986706721128662</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="n">
-        <v>0.5303236389149339</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19">
+        <v>0.53032363891493395</v>
+      </c>
+      <c r="C19">
         <v>0.1048837239604619</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.3647926371246041</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.5303236389149339</v>
+      <c r="D19">
+        <v>0.36479263712460408</v>
+      </c>
+      <c r="E19">
+        <v>0.53032363891493395</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="n">
-        <v>0.02297222009604379</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20">
+        <v>2.2972220096043789E-2</v>
+      </c>
+      <c r="C20">
         <v>0.915594625697428</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.06143315420652824</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>6.1433154206528243E-2</v>
+      </c>
+      <c r="E20">
         <v>0.915594625697428</v>
       </c>
       <c r="F20" t="s">
         <v>1</v>
       </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>